--- a/monster_data_analysis.xlsx
+++ b/monster_data_analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
   <si>
     <t>Monster</t>
   </si>
@@ -1162,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:K55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" activeCellId="1" sqref="F7 F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1239,11 +1239,11 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <f>B2/($M$7-D2)*(C2-$N$7)</f>
+        <f t="shared" ref="I2:I9" si="0">B2/($M$7-D2)*(C2-$N$7)</f>
         <v>31.111111111111111</v>
       </c>
       <c r="J2">
-        <f>B2/($M$8-D2)*(C2-$N$8)</f>
+        <f t="shared" ref="J2:J9" si="1">B2/($M$8-D2)*(C2-$N$8)</f>
         <v>-17.5</v>
       </c>
       <c r="K2">
@@ -1279,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1288,11 +1288,11 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <f>B3/($M$7-D3)*(C3-$N$7)</f>
+        <f t="shared" si="0"/>
         <v>56.25</v>
       </c>
       <c r="J3">
-        <f>B3/($M$8-D3)*(C3-$N$8)</f>
+        <f t="shared" si="1"/>
         <v>-20.454545454545453</v>
       </c>
       <c r="K3">
@@ -1337,11 +1337,11 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <f>B4/($M$7-D4)*(C4-$N$7)</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="J4">
-        <f>B4/($M$8-D4)*(C4-$N$8)</f>
+        <f t="shared" si="1"/>
         <v>3.28125</v>
       </c>
       <c r="K4">
@@ -1386,11 +1386,11 @@
         <v>5</v>
       </c>
       <c r="I5">
-        <f>B5/($M$7-D5)*(C5-$N$7)</f>
+        <f t="shared" si="0"/>
         <v>660</v>
       </c>
       <c r="J5">
-        <f>B5/($M$8-D5)*(C5-$N$8)</f>
+        <f t="shared" si="1"/>
         <v>-6.666666666666667</v>
       </c>
       <c r="K5">
@@ -1435,11 +1435,11 @@
         <v>6</v>
       </c>
       <c r="I6">
-        <f>B6/($M$7-D6)*(C6-$N$7)</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="J6">
-        <f>B6/($M$8-D6)*(C6-$N$8)</f>
+        <f t="shared" si="1"/>
         <v>12.068965517241379</v>
       </c>
       <c r="K6">
@@ -1475,11 +1475,11 @@
         <v>8</v>
       </c>
       <c r="I7">
-        <f>B7/($M$7-D7)*(C7-$N$7)</f>
+        <f t="shared" si="0"/>
         <v>-1155</v>
       </c>
       <c r="J7">
-        <f>B7/($M$8-D7)*(C7-$N$8)</f>
+        <f t="shared" si="1"/>
         <v>40.652173913043477</v>
       </c>
       <c r="K7">
@@ -1518,11 +1518,11 @@
         <v>12</v>
       </c>
       <c r="I8">
-        <f>B8/($M$7-D8)*(C8-$N$7)</f>
+        <f t="shared" si="0"/>
         <v>-158.33333333333334</v>
       </c>
       <c r="J8">
-        <f>B8/($M$8-D8)*(C8-$N$8)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K8">
@@ -1561,11 +1561,11 @@
         <v>30</v>
       </c>
       <c r="I9">
-        <f>B9/($M$7-D9)*(C9-$N$7)</f>
+        <f t="shared" si="0"/>
         <v>-1100</v>
       </c>
       <c r="J9">
-        <f>B9/($M$8-D9)*(C9-$N$8)</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K9">
@@ -1604,11 +1604,11 @@
         <v>8</v>
       </c>
       <c r="I10">
-        <f>B10/($M$8-D10)*(C10-$N$8)</f>
+        <f t="shared" ref="I10:I16" si="2">B10/($M$8-D10)*(C10-$N$8)</f>
         <v>101.5625</v>
       </c>
       <c r="J10">
-        <f>B10/($M$9-D10)*(C10-$N$9)</f>
+        <f t="shared" ref="J10:J16" si="3">B10/($M$9-D10)*(C10-$N$9)</f>
         <v>-39.634146341463413</v>
       </c>
       <c r="K10">
@@ -1647,11 +1647,11 @@
         <v>12</v>
       </c>
       <c r="I11">
-        <f>B11/($M$8-D11)*(C11-$N$8)</f>
+        <f t="shared" si="2"/>
         <v>144.44444444444446</v>
       </c>
       <c r="J11">
-        <f>B11/($M$9-D11)*(C11-$N$9)</f>
+        <f t="shared" si="3"/>
         <v>11.688311688311689</v>
       </c>
       <c r="K11">
@@ -1690,11 +1690,11 @@
         <v>18</v>
       </c>
       <c r="I12">
-        <f>B12/($M$8-D12)*(C12-$N$8)</f>
+        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
       <c r="J12">
-        <f>B12/($M$9-D12)*(C12-$N$9)</f>
+        <f t="shared" si="3"/>
         <v>18.18181818181818</v>
       </c>
       <c r="K12">
@@ -1733,11 +1733,11 @@
         <v>22</v>
       </c>
       <c r="I13">
-        <f>B13/($M$8-D13)*(C13-$N$8)</f>
+        <f t="shared" si="2"/>
         <v>433.33333333333331</v>
       </c>
       <c r="J13">
-        <f>B13/($M$9-D13)*(C13-$N$9)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13">
@@ -1767,11 +1767,11 @@
         <v>28</v>
       </c>
       <c r="I14">
-        <f>B14/($M$8-D14)*(C14-$N$8)</f>
+        <f t="shared" si="2"/>
         <v>-39.393939393939398</v>
       </c>
       <c r="J14">
-        <f>B14/($M$9-D14)*(C14-$N$9)</f>
+        <f t="shared" si="3"/>
         <v>17.647058823529413</v>
       </c>
       <c r="K14">
@@ -1801,11 +1801,11 @@
         <v>30</v>
       </c>
       <c r="I15">
-        <f>B15/($M$8-D15)*(C15-$N$8)</f>
+        <f t="shared" si="2"/>
         <v>1360</v>
       </c>
       <c r="J15">
-        <f>B15/($M$9-D15)*(C15-$N$9)</f>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K15">
@@ -1835,11 +1835,11 @@
         <v>144</v>
       </c>
       <c r="I16">
-        <f>B16/($M$8-D16)*(C16-$N$8)</f>
+        <f t="shared" si="2"/>
         <v>-2348.9032258064517</v>
       </c>
       <c r="J16">
-        <f>B16/($M$9-D16)*(C16-$N$9)</f>
+        <f t="shared" si="3"/>
         <v>2664</v>
       </c>
       <c r="K16">
@@ -1869,11 +1869,11 @@
         <v>30</v>
       </c>
       <c r="I17">
-        <f>B17/($M$9-D17)*(C17-$N$9)</f>
+        <f t="shared" ref="I17:I22" si="4">B17/($M$9-D17)*(C17-$N$9)</f>
         <v>172.30769230769232</v>
       </c>
       <c r="J17">
-        <f>B17/($M$10-D17)*(C17-$N$10)</f>
+        <f t="shared" ref="J17:J22" si="5">B17/($M$10-D17)*(C17-$N$10)</f>
         <v>-91.428571428571416</v>
       </c>
       <c r="K17">
@@ -1903,11 +1903,11 @@
         <v>35</v>
       </c>
       <c r="I18">
-        <f>B18/($M$9-D18)*(C18-$N$9)</f>
+        <f t="shared" si="4"/>
         <v>248.18181818181819</v>
       </c>
       <c r="J18">
-        <f>B18/($M$10-D18)*(C18-$N$10)</f>
+        <f t="shared" si="5"/>
         <v>-16.153846153846153</v>
       </c>
       <c r="K18">
@@ -1937,11 +1937,11 @@
         <v>45</v>
       </c>
       <c r="I19">
-        <f>B19/($M$9-D19)*(C19-$N$9)</f>
+        <f t="shared" si="4"/>
         <v>700</v>
       </c>
       <c r="J19">
-        <f>B19/($M$10-D19)*(C19-$N$10)</f>
+        <f t="shared" si="5"/>
         <v>57.142857142857139</v>
       </c>
       <c r="K19">
@@ -1971,11 +1971,11 @@
         <v>50</v>
       </c>
       <c r="I20">
-        <f>B20/($M$9-D20)*(C20-$N$9)</f>
+        <f t="shared" si="4"/>
         <v>-380</v>
       </c>
       <c r="J20">
-        <f>B20/($M$10-D20)*(C20-$N$10)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="K20">
@@ -2005,11 +2005,11 @@
         <v>55</v>
       </c>
       <c r="I21">
-        <f>B21/($M$9-D21)*(C21-$N$9)</f>
+        <f t="shared" si="4"/>
         <v>1530</v>
       </c>
       <c r="J21">
-        <f>B21/($M$10-D21)*(C21-$N$10)</f>
+        <f t="shared" si="5"/>
         <v>425.4545454545455</v>
       </c>
       <c r="K21">
@@ -2039,11 +2039,11 @@
         <v>65</v>
       </c>
       <c r="I22">
-        <f>B22/($M$9-D22)*(C22-$N$9)</f>
+        <f t="shared" si="4"/>
         <v>-1500</v>
       </c>
       <c r="J22">
-        <f>B22/($M$10-D22)*(C22-$N$10)</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="K22">
@@ -2073,11 +2073,11 @@
         <v>40</v>
       </c>
       <c r="I23">
-        <f>B23/($M$10-D23)*(C23-$N$10)</f>
+        <f t="shared" ref="I23:I29" si="6">B23/($M$10-D23)*(C23-$N$10)</f>
         <v>234.66666666666666</v>
       </c>
       <c r="J23">
-        <f>B23/($M$11-D23)*(C23-$N$11)</f>
+        <f t="shared" ref="J23:J29" si="7">B23/($M$11-D23)*(C23-$N$11)</f>
         <v>12.8</v>
       </c>
       <c r="K23">
@@ -2107,11 +2107,11 @@
         <v>50</v>
       </c>
       <c r="I24">
-        <f>B24/($M$10-D24)*(C24-$N$10)</f>
+        <f t="shared" si="6"/>
         <v>475</v>
       </c>
       <c r="J24">
-        <f>B24/($M$11-D24)*(C24-$N$11)</f>
+        <f t="shared" si="7"/>
         <v>105.55555555555556</v>
       </c>
       <c r="K24">
@@ -2141,11 +2141,11 @@
         <v>80</v>
       </c>
       <c r="I25">
-        <f>B25/($M$10-D25)*(C25-$N$10)</f>
+        <f t="shared" si="6"/>
         <v>665</v>
       </c>
       <c r="J25">
-        <f>B25/($M$11-D25)*(C25-$N$11)</f>
+        <f t="shared" si="7"/>
         <v>118.125</v>
       </c>
       <c r="K25">
@@ -2175,11 +2175,11 @@
         <v>90</v>
       </c>
       <c r="I26">
-        <f>B26/($M$10-D26)*(C26-$N$10)</f>
+        <f t="shared" si="6"/>
         <v>997.5</v>
       </c>
       <c r="J26">
-        <f>B26/($M$11-D26)*(C26-$N$11)</f>
+        <f t="shared" si="7"/>
         <v>149.28571428571431</v>
       </c>
       <c r="K26">
@@ -2209,11 +2209,11 @@
         <v>100</v>
       </c>
       <c r="I27">
-        <f>B27/($M$10-D27)*(C27-$N$10)</f>
+        <f t="shared" si="6"/>
         <v>757.64705882352951</v>
       </c>
       <c r="J27">
-        <f>B27/($M$11-D27)*(C27-$N$11)</f>
+        <f t="shared" si="7"/>
         <v>223.78378378378378</v>
       </c>
       <c r="K27">
@@ -2243,11 +2243,11 @@
         <v>120</v>
       </c>
       <c r="I28">
-        <f>B28/($M$10-D28)*(C28-$N$10)</f>
+        <f t="shared" si="6"/>
         <v>-1500</v>
       </c>
       <c r="J28">
-        <f>B28/($M$11-D28)*(C28-$N$11)</f>
+        <f t="shared" si="7"/>
         <v>385.71428571428572</v>
       </c>
       <c r="K28">
@@ -2277,11 +2277,11 @@
         <v>170</v>
       </c>
       <c r="I29">
-        <f>B29/($M$10-D29)*(C29-$N$10)</f>
+        <f t="shared" si="6"/>
         <v>-525.71428571428567</v>
       </c>
       <c r="J29">
-        <f>B29/($M$11-D29)*(C29-$N$11)</f>
+        <f t="shared" si="7"/>
         <v>693.33333333333326</v>
       </c>
       <c r="K29">
@@ -2311,11 +2311,11 @@
         <v>120</v>
       </c>
       <c r="I30">
-        <f>B30/($M$11-D30)*(C30-$N$11)</f>
+        <f t="shared" ref="I30:I37" si="8">B30/($M$11-D30)*(C30-$N$11)</f>
         <v>275</v>
       </c>
       <c r="J30">
-        <f>B30/($M$12-D30)*(C30-$N$12)</f>
+        <f t="shared" ref="J30:J37" si="9">B30/($M$12-D30)*(C30-$N$12)</f>
         <v>-114.15094339622641</v>
       </c>
       <c r="K30">
@@ -2345,11 +2345,11 @@
         <v>140</v>
       </c>
       <c r="I31">
-        <f>B31/($M$11-D31)*(C31-$N$11)</f>
+        <f t="shared" si="8"/>
         <v>416.66666666666669</v>
       </c>
       <c r="J31">
-        <f>B31/($M$12-D31)*(C31-$N$12)</f>
+        <f t="shared" si="9"/>
         <v>-51.020408163265309</v>
       </c>
       <c r="K31">
@@ -2379,11 +2379,11 @@
         <v>180</v>
       </c>
       <c r="I32">
-        <f>B32/($M$11-D32)*(C32-$N$11)</f>
+        <f t="shared" si="8"/>
         <v>666.66666666666674</v>
       </c>
       <c r="J32">
-        <f>B32/($M$12-D32)*(C32-$N$12)</f>
+        <f t="shared" si="9"/>
         <v>47.297297297297298</v>
       </c>
       <c r="K32">
@@ -2413,11 +2413,11 @@
         <v>190</v>
       </c>
       <c r="I33">
-        <f>B33/($M$11-D33)*(C33-$N$11)</f>
+        <f t="shared" si="8"/>
         <v>1120</v>
       </c>
       <c r="J33">
-        <f>B33/($M$12-D33)*(C33-$N$12)</f>
+        <f t="shared" si="9"/>
         <v>34.285714285714285</v>
       </c>
       <c r="K33">
@@ -2447,11 +2447,11 @@
         <v>190</v>
       </c>
       <c r="I34">
-        <f>B34/($M$11-D34)*(C34-$N$11)</f>
+        <f t="shared" si="8"/>
         <v>960</v>
       </c>
       <c r="J34">
-        <f>B34/($M$12-D34)*(C34-$N$12)</f>
+        <f t="shared" si="9"/>
         <v>141.81818181818181</v>
       </c>
       <c r="K34">
@@ -2481,11 +2481,11 @@
         <v>195</v>
       </c>
       <c r="I35">
-        <f>B35/($M$11-D35)*(C35-$N$11)</f>
+        <f t="shared" si="8"/>
         <v>536.84210526315792</v>
       </c>
       <c r="J35">
-        <f>B35/($M$12-D35)*(C35-$N$12)</f>
+        <f t="shared" si="9"/>
         <v>204.76190476190476</v>
       </c>
       <c r="K35">
@@ -2515,11 +2515,11 @@
         <v>220</v>
       </c>
       <c r="I36">
-        <f>B36/($M$11-D36)*(C36-$N$11)</f>
+        <f t="shared" si="8"/>
         <v>1500</v>
       </c>
       <c r="J36">
-        <f>B36/($M$12-D36)*(C36-$N$12)</f>
+        <f t="shared" si="9"/>
         <v>538.46153846153845</v>
       </c>
       <c r="K36">
@@ -2549,11 +2549,11 @@
         <v>240</v>
       </c>
       <c r="I37">
-        <f>B37/($M$11-D37)*(C37-$N$11)</f>
+        <f t="shared" si="8"/>
         <v>-266.66666666666669</v>
       </c>
       <c r="J37">
-        <f>B37/($M$12-D37)*(C37-$N$12)</f>
+        <f t="shared" si="9"/>
         <v>328.57142857142856</v>
       </c>
       <c r="K37">

--- a/monster_data_analysis.xlsx
+++ b/monster_data_analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>Monster</t>
   </si>
@@ -1163,7 +1163,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" activeCellId="1" sqref="F7 F4"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1236,6 +1236,9 @@
         <v>1</v>
       </c>
       <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
@@ -1285,7 +1288,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
@@ -1334,7 +1340,10 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
@@ -1383,7 +1392,10 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -1432,7 +1444,10 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -1472,7 +1487,10 @@
         <v>7</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -1515,7 +1533,10 @@
         <v>8</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -1558,7 +1579,10 @@
         <v>17</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -1601,7 +1625,10 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
       </c>
       <c r="I10">
         <f t="shared" ref="I10:I16" si="2">B10/($M$8-D10)*(C10-$N$8)</f>
@@ -1644,7 +1671,10 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
@@ -1687,7 +1717,10 @@
         <v>4</v>
       </c>
       <c r="G12">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
@@ -1730,7 +1763,10 @@
         <v>6</v>
       </c>
       <c r="G13">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
@@ -1764,7 +1800,10 @@
         <v>3</v>
       </c>
       <c r="G14">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
@@ -1798,7 +1837,10 @@
         <v>8</v>
       </c>
       <c r="G15">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
@@ -1832,7 +1874,10 @@
         <v>17</v>
       </c>
       <c r="G16">
-        <v>144</v>
+        <v>216</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
@@ -1866,7 +1911,10 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
       </c>
       <c r="I17">
         <f t="shared" ref="I17:I22" si="4">B17/($M$9-D17)*(C17-$N$9)</f>
@@ -1900,7 +1948,10 @@
         <v>3</v>
       </c>
       <c r="G18">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
@@ -1934,7 +1985,10 @@
         <v>5</v>
       </c>
       <c r="G19">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
@@ -1968,7 +2022,10 @@
         <v>6</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
@@ -2002,7 +2059,10 @@
         <v>4</v>
       </c>
       <c r="G21">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
@@ -2036,7 +2096,10 @@
         <v>8</v>
       </c>
       <c r="G22">
-        <v>65</v>
+        <v>75</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
@@ -2070,7 +2133,10 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
       </c>
       <c r="I23">
         <f t="shared" ref="I23:I29" si="6">B23/($M$10-D23)*(C23-$N$10)</f>
@@ -2104,7 +2170,10 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
       </c>
       <c r="I24">
         <f t="shared" si="6"/>
@@ -2138,7 +2207,10 @@
         <v>3</v>
       </c>
       <c r="G25">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
       </c>
       <c r="I25">
         <f t="shared" si="6"/>
@@ -2172,7 +2244,10 @@
         <v>5</v>
       </c>
       <c r="G26">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
       </c>
       <c r="I26">
         <f t="shared" si="6"/>
@@ -2206,7 +2281,10 @@
         <v>6</v>
       </c>
       <c r="G27">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
       </c>
       <c r="I27">
         <f t="shared" si="6"/>
@@ -2240,7 +2318,10 @@
         <v>7</v>
       </c>
       <c r="G28">
-        <v>120</v>
+        <v>110</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
       </c>
       <c r="I28">
         <f t="shared" si="6"/>
@@ -2262,7 +2343,7 @@
         <v>160</v>
       </c>
       <c r="C29">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D29">
         <v>230</v>
@@ -2274,15 +2355,18 @@
         <v>9</v>
       </c>
       <c r="G29">
-        <v>170</v>
+        <v>160</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
       </c>
       <c r="I29">
         <f t="shared" si="6"/>
-        <v>-525.71428571428567</v>
+        <v>-502.85714285714283</v>
       </c>
       <c r="J29">
         <f t="shared" si="7"/>
-        <v>693.33333333333326</v>
+        <v>640</v>
       </c>
       <c r="K29">
         <v>4</v>
@@ -2296,27 +2380,30 @@
         <v>550</v>
       </c>
       <c r="C30">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="D30">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>120</v>
+        <v>90</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
       </c>
       <c r="I30">
         <f t="shared" ref="I30:I37" si="8">B30/($M$11-D30)*(C30-$N$11)</f>
-        <v>275</v>
+        <v>171.875</v>
       </c>
       <c r="J30">
         <f t="shared" ref="J30:J37" si="9">B30/($M$12-D30)*(C30-$N$12)</f>
-        <v>-114.15094339622641</v>
+        <v>-144.73684210526315</v>
       </c>
       <c r="K30">
         <v>5</v>
@@ -2342,7 +2429,10 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>140</v>
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
       </c>
       <c r="I31">
         <f t="shared" si="8"/>
@@ -2376,7 +2466,10 @@
         <v>4</v>
       </c>
       <c r="G32">
-        <v>180</v>
+        <v>110</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
       </c>
       <c r="I32">
         <f t="shared" si="8"/>
@@ -2410,7 +2503,10 @@
         <v>4</v>
       </c>
       <c r="G33">
-        <v>190</v>
+        <v>125</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
       </c>
       <c r="I33">
         <f t="shared" si="8"/>
@@ -2444,7 +2540,10 @@
         <v>5</v>
       </c>
       <c r="G34">
-        <v>190</v>
+        <v>133</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
       </c>
       <c r="I34">
         <f t="shared" si="8"/>
@@ -2478,7 +2577,10 @@
         <v>5</v>
       </c>
       <c r="G35">
-        <v>195</v>
+        <v>130</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
       </c>
       <c r="I35">
         <f t="shared" si="8"/>
@@ -2512,7 +2614,10 @@
         <v>8</v>
       </c>
       <c r="G36">
-        <v>220</v>
+        <v>152</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
       </c>
       <c r="I36">
         <f t="shared" si="8"/>
@@ -2546,7 +2651,10 @@
         <v>8</v>
       </c>
       <c r="G37">
-        <v>240</v>
+        <v>180</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
       </c>
       <c r="I37">
         <f t="shared" si="8"/>
